--- a/Analysis/update_data/data/processed/Data_Dictionary.xlsx
+++ b/Analysis/update_data/data/processed/Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmccoy/Documents/PhD/covid/GetzHubbard/Analysis/update_data/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3B43B-A66D-0F40-B1EF-BECDB9BEADCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18084C15-E111-9B4D-9ECA-E23D0B3E464E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="860" windowWidth="32320" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$J$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$J$173</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="454">
   <si>
     <t>Col Num</t>
   </si>
@@ -2135,6 +2135,33 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>prev_2017_all_ages_Hepatitis..................................Chronic.Viral.B...C.</t>
+  </si>
+  <si>
+    <t>Prevalence of hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grocery_pharmacy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parks                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">residential                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retailAndRecreation                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transitStations                           </t>
+  </si>
+  <si>
+    <t>workplaces</t>
+  </si>
+  <si>
+    <t>google mobility data from x to y</t>
   </si>
 </sst>
 </file>
@@ -2786,16 +2813,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.19921875" style="6"/>
-    <col min="2" max="2" width="53.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.3984375" style="6" customWidth="1"/>
     <col min="3" max="4" width="20.19921875" style="6"/>
     <col min="5" max="6" width="28.796875" style="6" customWidth="1"/>
     <col min="7" max="7" width="61" style="6" customWidth="1"/>
@@ -4288,26 +4315,22 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <v>65</v>
-      </c>
+      <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>127</v>
+      <c r="G51" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>104</v>
@@ -4318,10 +4341,10 @@
     </row>
     <row r="52" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
-        <v>66</v>
-      </c>
-      <c r="B52" s="55" t="s">
-        <v>416</v>
+        <v>65</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>5</v>
@@ -4336,7 +4359,7 @@
         <v>282</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>104</v>
@@ -4347,10 +4370,10 @@
     </row>
     <row r="53" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
-        <v>67</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>416</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -4365,7 +4388,7 @@
         <v>282</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>104</v>
@@ -4375,16 +4398,16 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
-        <v>68</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="A54" s="7">
+        <v>67</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -4393,27 +4416,27 @@
       <c r="F54" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>106</v>
+      <c r="G54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>69</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2" t="s">
+    <row r="55" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>68</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4422,25 +4445,22 @@
       <c r="F55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>104</v>
+      <c r="G55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -4455,29 +4475,29 @@
         <v>282</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
-        <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -4487,29 +4507,29 @@
         <v>282</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>275</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
-        <v>72</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="A58" s="9">
+        <v>71</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -4519,21 +4539,24 @@
         <v>282</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="J58" s="6" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -4548,7 +4571,7 @@
         <v>282</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>104</v>
@@ -4558,16 +4581,16 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
-        <v>74</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="A60" s="7">
+        <v>73</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -4577,26 +4600,26 @@
         <v>282</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
-        <v>75</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="9">
+        <v>74</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -4606,10 +4629,10 @@
         <v>282</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>275</v>
@@ -4617,10 +4640,10 @@
     </row>
     <row r="62" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -4635,7 +4658,7 @@
         <v>282</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>104</v>
@@ -4645,16 +4668,16 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
-        <v>77</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="A63" s="7">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -4663,27 +4686,27 @@
       <c r="F63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>106</v>
+      <c r="G63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
-        <v>78</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="A64" s="9">
+        <v>77</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4692,27 +4715,27 @@
       <c r="F64" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>104</v>
+      <c r="G64" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
-        <v>79</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="A65" s="7">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -4722,10 +4745,10 @@
         <v>282</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>106</v>
+        <v>150</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>275</v>
@@ -4733,10 +4756,10 @@
     </row>
     <row r="66" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>5</v>
@@ -4751,7 +4774,7 @@
         <v>282</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>106</v>
@@ -4761,16 +4784,16 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
-        <v>81</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="A67" s="9">
+        <v>80</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -4780,26 +4803,26 @@
         <v>282</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>104</v>
+        <v>154</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
-        <v>82</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="A68" s="7">
+        <v>81</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -4809,26 +4832,26 @@
         <v>282</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
-        <v>83</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" s="9">
+        <v>82</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -4838,26 +4861,26 @@
         <v>282</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>104</v>
+        <v>158</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
-        <v>84</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="A70" s="7">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -4867,26 +4890,26 @@
         <v>282</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>106</v>
+        <v>160</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
-        <v>85</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="9">
+        <v>84</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -4896,10 +4919,10 @@
         <v>282</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>104</v>
+        <v>162</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>275</v>
@@ -4907,10 +4930,10 @@
     </row>
     <row r="72" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -4925,7 +4948,7 @@
         <v>282</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>104</v>
@@ -4935,16 +4958,16 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9">
-        <v>87</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="A73" s="7">
+        <v>86</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -4954,26 +4977,26 @@
         <v>282</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>106</v>
+        <v>166</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
-        <v>88</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="A74" s="9">
+        <v>87</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -4983,10 +5006,10 @@
         <v>282</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>275</v>
@@ -4994,10 +5017,10 @@
     </row>
     <row r="75" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -5012,7 +5035,7 @@
         <v>282</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>104</v>
@@ -5022,16 +5045,16 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9">
-        <v>90</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="A76" s="7">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -5040,27 +5063,27 @@
       <c r="F76" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>106</v>
+      <c r="G76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
-        <v>91</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" s="9">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -5069,27 +5092,27 @@
       <c r="F77" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>104</v>
+      <c r="G77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="9">
-        <v>92</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="A78" s="7">
+        <v>91</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -5098,11 +5121,11 @@
       <c r="F78" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>106</v>
+      <c r="G78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>275</v>
@@ -5110,10 +5133,10 @@
     </row>
     <row r="79" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>5</v>
@@ -5127,8 +5150,8 @@
       <c r="F79" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>180</v>
+      <c r="G79" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>106</v>
@@ -5138,16 +5161,16 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
-        <v>94</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="A80" s="9">
+        <v>93</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -5157,26 +5180,26 @@
         <v>282</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>104</v>
+        <v>180</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="9">
-        <v>95</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="A81" s="7">
+        <v>94</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -5186,55 +5209,55 @@
         <v>282</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>106</v>
+        <v>182</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
+        <v>95</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A83" s="9">
         <v>20</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
-        <v>33</v>
-      </c>
-      <c r="B83" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -5243,11 +5266,11 @@
       <c r="F83" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>77</v>
+      <c r="G83" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>274</v>
@@ -5255,10 +5278,10 @@
     </row>
     <row r="84" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -5273,7 +5296,7 @@
         <v>56</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>63</v>
@@ -5282,12 +5305,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A85" s="7">
-        <v>35</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="B85" s="55" t="s">
+        <v>419</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -5301,30 +5324,27 @@
       <c r="F85" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>80</v>
+      <c r="G85" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A86" s="9">
-        <v>36</v>
-      </c>
-      <c r="B86" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="7">
+        <v>35</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -5333,27 +5353,30 @@
       <c r="F86" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>70</v>
+      <c r="G86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
-        <v>37</v>
+      <c r="A87" s="9">
+        <v>36</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -5363,21 +5386,21 @@
         <v>56</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A88" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -5392,24 +5415,21 @@
         <v>56</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -5418,59 +5438,59 @@
         <v>19</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="9">
-        <v>116</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
+        <v>44</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>229</v>
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
@@ -5485,21 +5505,24 @@
         <v>300</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="J91" s="6" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>5</v>
@@ -5514,7 +5537,7 @@
         <v>300</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>220</v>
@@ -5525,10 +5548,10 @@
     </row>
     <row r="93" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>5</v>
@@ -5542,8 +5565,8 @@
       <c r="F93" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>235</v>
+      <c r="G93" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>220</v>
@@ -5552,12 +5575,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>5</v>
@@ -5566,111 +5589,113 @@
         <v>6</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="112" x14ac:dyDescent="0.15">
+      <c r="A95" s="9">
+        <v>120</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J94" s="6" t="s">
+      <c r="I95" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J95" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
+    <row r="96" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="1" t="s">
+      <c r="F96" s="2"/>
+      <c r="G96" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I96" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="8">
+    <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
         <v>7</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="28" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
+      <c r="I97" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
         <v>1</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
-        <v>2</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -5682,8 +5707,8 @@
         <v>7</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="2" t="s">
-        <v>10</v>
+      <c r="G98" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>9</v>
@@ -5692,12 +5717,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -5709,8 +5734,8 @@
         <v>7</v>
       </c>
       <c r="F99" s="2"/>
-      <c r="G99" s="1" t="s">
-        <v>12</v>
+      <c r="G99" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>9</v>
@@ -5721,10 +5746,10 @@
     </row>
     <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -5737,7 +5762,7 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>9</v>
@@ -5746,71 +5771,66 @@
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="8">
-        <v>5</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="8">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E102" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I101" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="9">
+      <c r="I102" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="9">
         <v>17</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A103" s="9">
-        <v>21</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>5</v>
@@ -5825,21 +5845,24 @@
         <v>270</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
-        <v>42</v>
-      </c>
-      <c r="B104" s="55" t="s">
-        <v>426</v>
+        <v>21</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>5</v>
@@ -5854,10 +5877,10 @@
         <v>270</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>274</v>
@@ -5865,10 +5888,10 @@
     </row>
     <row r="105" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>5</v>
@@ -5883,7 +5906,7 @@
         <v>270</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>70</v>
@@ -5892,12 +5915,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A106" s="9">
-        <v>127</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>253</v>
+        <v>43</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>427</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -5905,31 +5928,28 @@
       <c r="D106" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>270</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>255</v>
+      <c r="G106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>5</v>
@@ -5944,7 +5964,7 @@
         <v>270</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>255</v>
@@ -5953,15 +5973,15 @@
         <v>275</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>5</v>
@@ -5976,7 +5996,7 @@
         <v>270</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>255</v>
@@ -5985,15 +6005,15 @@
         <v>275</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>5</v>
@@ -6007,22 +6027,25 @@
       <c r="F109" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>261</v>
+      <c r="G109" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>5</v>
@@ -6037,21 +6060,21 @@
         <v>270</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>255</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>5</v>
@@ -6066,7 +6089,7 @@
         <v>270</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>255</v>
@@ -6077,10 +6100,10 @@
     </row>
     <row r="112" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>5</v>
@@ -6095,7 +6118,7 @@
         <v>270</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>255</v>
@@ -6104,41 +6127,41 @@
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A113" s="7">
-        <v>38</v>
-      </c>
-      <c r="B113" s="55" t="s">
-        <v>431</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="2" t="s">
+    <row r="113" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="9">
+        <v>133</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>84</v>
+        <v>270</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>5</v>
@@ -6153,7 +6176,7 @@
         <v>383</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>63</v>
@@ -6164,10 +6187,10 @@
     </row>
     <row r="115" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A115" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
@@ -6179,24 +6202,24 @@
         <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A116" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
@@ -6207,25 +6230,25 @@
       <c r="E116" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F116" s="14" t="s">
-        <v>385</v>
+      <c r="F116" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I116" s="6" t="s">
+      <c r="I116" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A117" s="7">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
@@ -6240,7 +6263,7 @@
         <v>385</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>63</v>
@@ -6249,68 +6272,71 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="21" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="18">
-        <v>97</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="19" t="s">
+    <row r="118" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A118" s="7">
+        <v>51</v>
+      </c>
+      <c r="B118" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="G118" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="H118" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="I118" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="J118" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="13"/>
-      <c r="B119" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
+      <c r="G118" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="21" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="18">
+        <v>97</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E119" s="19" t="s">
         <v>83</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="G119" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="H119" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I119" s="16" t="s">
+      <c r="G119" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="I119" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="J119" s="16" t="s">
-        <v>348</v>
+      <c r="J119" s="21" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
-      <c r="B120" s="17" t="s">
-        <v>315</v>
+      <c r="B120" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -6321,7 +6347,7 @@
         <v>385</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>187</v>
@@ -6329,11 +6355,14 @@
       <c r="I120" s="16" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" s="16" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J120" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -6344,22 +6373,19 @@
         <v>385</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="J121" s="16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="16" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -6367,80 +6393,80 @@
         <v>83</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I122" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="J122" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="13"/>
+      <c r="B123" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="H123" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I123" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="J122" s="16" t="s">
+      <c r="J123" s="16" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="35" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="32">
+    <row r="124" spans="1:10" s="35" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="32">
         <v>98</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B124" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C123" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="33" t="s">
+      <c r="C124" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F124" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G123" s="34" t="s">
+      <c r="G124" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="H123" s="34" t="s">
+      <c r="H124" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="I123" s="35" t="s">
+      <c r="I124" s="35" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="30" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="27"/>
-      <c r="B124" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="G124" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="H124" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I124" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="J124" s="30" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="30" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:10" s="30" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
       <c r="B125" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6451,7 +6477,7 @@
         <v>384</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H125" s="29" t="s">
         <v>187</v>
@@ -6459,22 +6485,25 @@
       <c r="I125" s="30" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" s="30" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J125" s="30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="30" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
       <c r="B126" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>384</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H126" s="29" t="s">
         <v>187</v>
@@ -6483,21 +6512,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:10" s="30" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
       <c r="B127" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>385</v>
+        <v>51</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H127" s="29" t="s">
         <v>187</v>
@@ -6506,63 +6535,60 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="44" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="41">
+    <row r="128" spans="1:10" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="27"/>
+      <c r="B128" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="G128" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="I128" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="44" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="41">
         <v>99</v>
       </c>
-      <c r="B128" s="42" t="s">
+      <c r="B129" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C128" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="42" t="s">
+      <c r="C129" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F128" s="42"/>
-      <c r="G128" s="43" t="s">
+      <c r="F129" s="42"/>
+      <c r="G129" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="H128" s="43" t="s">
+      <c r="H129" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="I128" s="44" t="s">
+      <c r="I129" s="44" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="39" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="36"/>
-      <c r="B129" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="G129" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="H129" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="I129" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="J129" s="39" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="39" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:10" s="39" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="36"/>
       <c r="B130" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -6573,7 +6599,7 @@
         <v>279</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>187</v>
@@ -6581,64 +6607,64 @@
       <c r="I130" s="39" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" s="48" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="45">
+      <c r="J130" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="39" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="36"/>
+      <c r="B131" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G131" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H131" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I131" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="48" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="45">
         <v>100</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B132" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="46" t="s">
+      <c r="C132" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F131" s="46"/>
-      <c r="G131" s="47" t="s">
+      <c r="F132" s="46"/>
+      <c r="G132" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="H131" s="47" t="s">
+      <c r="H132" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="I131" s="48" t="s">
+      <c r="I132" s="48" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="25" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A132" s="22"/>
-      <c r="B132" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="H132" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I132" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="J132" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" s="25" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -6649,7 +6675,7 @@
         <v>385</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H133" s="24" t="s">
         <v>187</v>
@@ -6657,11 +6683,14 @@
       <c r="I133" s="25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" s="25" customFormat="1" ht="152" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J133" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -6672,22 +6701,19 @@
         <v>385</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H134" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="J134" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="25" customFormat="1" ht="152" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -6698,22 +6724,22 @@
         <v>385</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I135" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J135" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -6721,10 +6747,10 @@
         <v>83</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>187</v>
@@ -6733,44 +6759,41 @@
         <v>274</v>
       </c>
       <c r="J136" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="22"/>
+      <c r="B137" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G137" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="H137" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I137" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J137" s="25" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A137" s="9">
+    <row r="138" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A138" s="9">
         <v>112</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F137" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="9">
-        <v>113</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>5</v>
@@ -6784,25 +6807,22 @@
       <c r="F138" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>222</v>
+      <c r="G138" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>220</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>5</v>
@@ -6816,8 +6836,8 @@
       <c r="F139" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>224</v>
+      <c r="G139" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>220</v>
@@ -6825,13 +6845,16 @@
       <c r="I139" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="J139" s="6" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="140" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>5</v>
@@ -6846,7 +6869,7 @@
         <v>385</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>220</v>
@@ -6855,12 +6878,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="9">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>5</v>
@@ -6875,24 +6898,21 @@
         <v>385</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>5</v>
@@ -6907,24 +6927,24 @@
         <v>385</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A143" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>5</v>
@@ -6939,21 +6959,24 @@
         <v>385</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>243</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A144" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>5</v>
@@ -6968,58 +6991,58 @@
         <v>385</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>243</v>
       </c>
       <c r="I144" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="9">
+        <v>124</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I145" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J144" s="6" t="s">
+      <c r="J145" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A145" s="7">
+    <row r="146" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A146" s="7">
         <v>45</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B146" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="9">
-        <v>46</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="4" t="s">
+      <c r="C146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -7029,56 +7052,56 @@
         <v>92</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="9">
-        <v>111</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>215</v>
+        <v>46</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>217</v>
+      <c r="G147" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A148" s="9">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>92</v>
@@ -7086,22 +7109,22 @@
       <c r="F148" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>250</v>
+      <c r="G148" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A149" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>5</v>
@@ -7116,66 +7139,72 @@
         <v>92</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>250</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="8">
-        <v>96</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="9">
+        <v>126</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="I150" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A151" s="49"/>
-      <c r="B151" s="49" t="s">
-        <v>386</v>
-      </c>
-      <c r="C151" s="49"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="F151" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="G151" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="H151" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="I151" s="52" t="s">
-        <v>274</v>
+      <c r="J150" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="8">
+        <v>96</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="49"/>
       <c r="B152" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
@@ -7186,7 +7215,7 @@
         <v>377</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H152" s="54" t="s">
         <v>379</v>
@@ -7198,7 +7227,7 @@
     <row r="153" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="49"/>
       <c r="B153" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
@@ -7209,7 +7238,7 @@
         <v>377</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H153" s="54" t="s">
         <v>379</v>
@@ -7221,7 +7250,7 @@
     <row r="154" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="49"/>
       <c r="B154" s="49" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C154" s="49"/>
       <c r="D154" s="49"/>
@@ -7232,7 +7261,7 @@
         <v>377</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H154" s="54" t="s">
         <v>379</v>
@@ -7244,7 +7273,7 @@
     <row r="155" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="49"/>
       <c r="B155" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C155" s="49"/>
       <c r="D155" s="49"/>
@@ -7255,7 +7284,7 @@
         <v>377</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H155" s="54" t="s">
         <v>379</v>
@@ -7267,7 +7296,7 @@
     <row r="156" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="49"/>
       <c r="B156" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C156" s="49"/>
       <c r="D156" s="49"/>
@@ -7277,8 +7306,8 @@
       <c r="F156" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="G156" s="51" t="s">
-        <v>357</v>
+      <c r="G156" s="50" t="s">
+        <v>373</v>
       </c>
       <c r="H156" s="54" t="s">
         <v>379</v>
@@ -7290,7 +7319,7 @@
     <row r="157" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="49"/>
       <c r="B157" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C157" s="49"/>
       <c r="D157" s="49"/>
@@ -7301,7 +7330,7 @@
         <v>377</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H157" s="54" t="s">
         <v>379</v>
@@ -7312,8 +7341,8 @@
     </row>
     <row r="158" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="49"/>
-      <c r="B158" s="52" t="s">
-        <v>402</v>
+      <c r="B158" s="49" t="s">
+        <v>401</v>
       </c>
       <c r="C158" s="49"/>
       <c r="D158" s="49"/>
@@ -7324,7 +7353,7 @@
         <v>377</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H158" s="54" t="s">
         <v>379</v>
@@ -7335,8 +7364,8 @@
     </row>
     <row r="159" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="49"/>
-      <c r="B159" s="49" t="s">
-        <v>397</v>
+      <c r="B159" s="52" t="s">
+        <v>402</v>
       </c>
       <c r="C159" s="49"/>
       <c r="D159" s="49"/>
@@ -7347,7 +7376,7 @@
         <v>377</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H159" s="54" t="s">
         <v>379</v>
@@ -7358,8 +7387,8 @@
     </row>
     <row r="160" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="49"/>
-      <c r="B160" s="52" t="s">
-        <v>396</v>
+      <c r="B160" s="49" t="s">
+        <v>397</v>
       </c>
       <c r="C160" s="49"/>
       <c r="D160" s="49"/>
@@ -7370,7 +7399,7 @@
         <v>377</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H160" s="54" t="s">
         <v>379</v>
@@ -7381,8 +7410,8 @@
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="49"/>
-      <c r="B161" s="49" t="s">
-        <v>395</v>
+      <c r="B161" s="52" t="s">
+        <v>396</v>
       </c>
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
@@ -7393,7 +7422,7 @@
         <v>377</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H161" s="54" t="s">
         <v>379</v>
@@ -7405,7 +7434,7 @@
     <row r="162" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="49"/>
       <c r="B162" s="49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C162" s="49"/>
       <c r="D162" s="49"/>
@@ -7416,7 +7445,7 @@
         <v>377</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H162" s="54" t="s">
         <v>379</v>
@@ -7428,7 +7457,7 @@
     <row r="163" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="49"/>
       <c r="B163" s="49" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C163" s="49"/>
       <c r="D163" s="49"/>
@@ -7439,7 +7468,7 @@
         <v>377</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H163" s="54" t="s">
         <v>379</v>
@@ -7451,7 +7480,7 @@
     <row r="164" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="49"/>
       <c r="B164" s="49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C164" s="49"/>
       <c r="D164" s="49"/>
@@ -7462,7 +7491,7 @@
         <v>377</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H164" s="54" t="s">
         <v>379</v>
@@ -7474,7 +7503,7 @@
     <row r="165" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="49"/>
       <c r="B165" s="49" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
@@ -7485,7 +7514,7 @@
         <v>377</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H165" s="54" t="s">
         <v>379</v>
@@ -7497,7 +7526,7 @@
     <row r="166" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="49"/>
       <c r="B166" s="49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C166" s="49"/>
       <c r="D166" s="49"/>
@@ -7508,7 +7537,7 @@
         <v>377</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H166" s="54" t="s">
         <v>379</v>
@@ -7520,7 +7549,7 @@
     <row r="167" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="49"/>
       <c r="B167" s="49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
@@ -7531,7 +7560,7 @@
         <v>377</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H167" s="54" t="s">
         <v>379</v>
@@ -7540,52 +7569,46 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="52" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="B168" s="52" t="s">
+    <row r="168" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="49"/>
+      <c r="B168" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F168" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G168" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="H168" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="I168" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="52" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="B169" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="E168" s="52" t="s">
+      <c r="E169" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="F168" s="52" t="s">
+      <c r="F169" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="G168" s="53" t="s">
+      <c r="G169" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="H168" s="52" t="s">
+      <c r="H169" s="52" t="s">
         <v>375</v>
       </c>
-      <c r="I168" s="52" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A169" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B169" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="52" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7593,8 +7616,8 @@
       <c r="A170" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>439</v>
+      <c r="B170" s="55" t="s">
+        <v>380</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>444</v>
@@ -7605,14 +7628,14 @@
       <c r="E170" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F170" s="6" t="s">
-        <v>300</v>
+      <c r="F170" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>274</v>
@@ -7622,8 +7645,8 @@
       <c r="A171" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B171" s="55" t="s">
-        <v>437</v>
+      <c r="B171" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>444</v>
@@ -7635,10 +7658,10 @@
         <v>83</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>444</v>
@@ -7652,7 +7675,7 @@
         <v>444</v>
       </c>
       <c r="B172" s="55" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>444</v>
@@ -7667,7 +7690,7 @@
         <v>282</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>444</v>
@@ -7676,17 +7699,184 @@
         <v>274</v>
       </c>
     </row>
+    <row r="173" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B173" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B174" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B175" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B176" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B177" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B178" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B179" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J172" xr:uid="{6F8EE88F-6A1E-0944-B4CE-15CC78279902}">
+  <autoFilter ref="A1:J173" xr:uid="{6F8EE88F-6A1E-0944-B4CE-15CC78279902}">
     <filterColumn colId="8">
       <filters>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:J150">
-    <sortCondition ref="E2:E150"/>
-    <sortCondition ref="A2:A150"/>
+  <sortState ref="A2:J151">
+    <sortCondition ref="E2:E151"/>
+    <sortCondition ref="A2:A151"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analysis/update_data/data/processed/Data_Dictionary.xlsx
+++ b/Analysis/update_data/data/processed/Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmccoy/Documents/PhD/covid/GetzHubbard/Analysis/update_data/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18084C15-E111-9B4D-9ECA-E23D0B3E464E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2BBE6-C5A6-764B-A725-1E33DEFEA869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35280" yWindow="860" windowWidth="32320" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$J$173</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="455">
   <si>
     <t>Col Num</t>
   </si>
@@ -1271,17 +1271,6 @@
     <t>Percentage of the population that identifies as female, 2014-2018</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5-Year American Community
-Survey (ACS), Sex by, Age, 2014 - 2018</t>
-    </r>
-  </si>
-  <si>
     <t>pct_white_only_2018</t>
   </si>
   <si>
@@ -2162,6 +2151,14 @@
   </si>
   <si>
     <t>google mobility data from x to y</t>
+  </si>
+  <si>
+    <t>5-Year American Community
+Survey (ACS), Sex by, Age, 2014 - 2018</t>
+  </si>
+  <si>
+    <t>National Centers for Environmental Information / National Oceanic and Atmospheric Administration
+(NOAA)</t>
   </si>
 </sst>
 </file>
@@ -2815,8 +2812,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="B144" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.19921875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2826,7 +2823,8 @@
     <col min="3" max="4" width="20.19921875" style="6"/>
     <col min="5" max="6" width="28.796875" style="6" customWidth="1"/>
     <col min="7" max="7" width="61" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="20.19921875" style="6"/>
+    <col min="8" max="8" width="46.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="20.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -2834,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -2855,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -2875,10 +2873,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
@@ -2887,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.15">
@@ -2904,10 +2902,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>43</v>
@@ -2916,7 +2914,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
@@ -2933,10 +2931,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>192</v>
@@ -2945,13 +2943,13 @@
         <v>193</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>102</v>
       </c>
@@ -2965,19 +2963,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>196</v>
+      <c r="H5" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -2985,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -2994,22 +2992,22 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3017,7 +3015,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -3026,19 +3024,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3046,7 +3044,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -3055,19 +3053,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3075,7 +3073,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -3084,19 +3082,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3104,7 +3102,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -3113,19 +3111,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3133,7 +3131,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -3142,19 +3140,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3162,7 +3160,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -3171,19 +3169,19 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="84" x14ac:dyDescent="0.15">
@@ -3191,7 +3189,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -3200,19 +3198,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3229,10 +3227,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -3241,7 +3239,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3258,10 +3256,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>30</v>
@@ -3270,7 +3268,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3287,10 +3285,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>32</v>
@@ -3299,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3316,10 +3314,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>35</v>
@@ -3328,7 +3326,7 @@
         <v>33</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3345,10 +3343,10 @@
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>37</v>
@@ -3357,7 +3355,7 @@
         <v>33</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="70" x14ac:dyDescent="0.15">
@@ -3374,10 +3372,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>39</v>
@@ -3386,7 +3384,7 @@
         <v>33</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -3403,10 +3401,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>46</v>
@@ -3415,7 +3413,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3432,10 +3430,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>61</v>
@@ -3444,7 +3442,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -3464,7 +3462,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>52</v>
@@ -3473,10 +3471,10 @@
         <v>49</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3496,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>54</v>
@@ -3505,7 +3503,7 @@
         <v>49</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="140" x14ac:dyDescent="0.15">
@@ -3513,7 +3511,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -3525,7 +3523,7 @@
         <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>62</v>
@@ -3534,10 +3532,10 @@
         <v>63</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
@@ -3557,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>65</v>
@@ -3566,10 +3564,10 @@
         <v>63</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="70" hidden="1" x14ac:dyDescent="0.15">
@@ -3589,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>67</v>
@@ -3598,10 +3596,10 @@
         <v>63</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3609,7 +3607,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -3621,7 +3619,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>68</v>
@@ -3630,7 +3628,7 @@
         <v>63</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3638,7 +3636,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -3650,7 +3648,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>69</v>
@@ -3659,7 +3657,7 @@
         <v>70</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3667,7 +3665,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>5</v>
@@ -3679,7 +3677,7 @@
         <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>71</v>
@@ -3688,7 +3686,7 @@
         <v>63</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -3708,7 +3706,7 @@
         <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>73</v>
@@ -3717,10 +3715,10 @@
         <v>70</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3728,7 +3726,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -3740,7 +3738,7 @@
         <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>74</v>
@@ -3749,7 +3747,7 @@
         <v>63</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3757,7 +3755,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
@@ -3769,7 +3767,7 @@
         <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>75</v>
@@ -3778,13 +3776,13 @@
         <v>63</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3792,12 +3790,12 @@
         <v>51</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -3805,7 +3803,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>5</v>
@@ -3817,7 +3815,7 @@
         <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>76</v>
@@ -3826,7 +3824,7 @@
         <v>63</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="140" x14ac:dyDescent="0.15">
@@ -3834,7 +3832,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -3846,7 +3844,7 @@
         <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>96</v>
@@ -3855,10 +3853,10 @@
         <v>63</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3866,7 +3864,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -3878,7 +3876,7 @@
         <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>97</v>
@@ -3887,10 +3885,10 @@
         <v>63</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -3910,7 +3908,7 @@
         <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>99</v>
@@ -3919,10 +3917,10 @@
         <v>63</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -3942,7 +3940,7 @@
         <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>103</v>
@@ -3951,10 +3949,10 @@
         <v>104</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -3962,7 +3960,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>5</v>
@@ -3974,7 +3972,7 @@
         <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>105</v>
@@ -3983,7 +3981,7 @@
         <v>106</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4003,7 +4001,7 @@
         <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>108</v>
@@ -4012,7 +4010,7 @@
         <v>106</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4032,7 +4030,7 @@
         <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>110</v>
@@ -4041,7 +4039,7 @@
         <v>104</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4061,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>112</v>
@@ -4070,10 +4068,10 @@
         <v>104</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4093,7 +4091,7 @@
         <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>114</v>
@@ -4102,7 +4100,7 @@
         <v>106</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4110,7 +4108,7 @@
         <v>58</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -4122,7 +4120,7 @@
         <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>115</v>
@@ -4131,7 +4129,7 @@
         <v>104</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4151,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>117</v>
@@ -4160,7 +4158,7 @@
         <v>104</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4180,7 +4178,7 @@
         <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>119</v>
@@ -4189,7 +4187,7 @@
         <v>104</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4209,7 +4207,7 @@
         <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>121</v>
@@ -4218,7 +4216,7 @@
         <v>104</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4226,7 +4224,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>5</v>
@@ -4238,7 +4236,7 @@
         <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>122</v>
@@ -4247,7 +4245,7 @@
         <v>104</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4255,7 +4253,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>5</v>
@@ -4267,7 +4265,7 @@
         <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>123</v>
@@ -4276,10 +4274,10 @@
         <v>104</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4299,7 +4297,7 @@
         <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>125</v>
@@ -4308,16 +4306,16 @@
         <v>104</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>5</v>
@@ -4327,16 +4325,16 @@
         <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4356,7 +4354,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>127</v>
@@ -4365,7 +4363,7 @@
         <v>104</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4373,7 +4371,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
@@ -4385,7 +4383,7 @@
         <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>128</v>
@@ -4394,7 +4392,7 @@
         <v>104</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4414,7 +4412,7 @@
         <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>130</v>
@@ -4423,7 +4421,7 @@
         <v>104</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -4431,7 +4429,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>5</v>
@@ -4443,7 +4441,7 @@
         <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>131</v>
@@ -4452,7 +4450,7 @@
         <v>106</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4472,7 +4470,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>133</v>
@@ -4481,10 +4479,10 @@
         <v>104</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -4504,7 +4502,7 @@
         <v>51</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>135</v>
@@ -4513,10 +4511,10 @@
         <v>104</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4536,7 +4534,7 @@
         <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>137</v>
@@ -4545,10 +4543,10 @@
         <v>106</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4568,7 +4566,7 @@
         <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>139</v>
@@ -4577,7 +4575,7 @@
         <v>104</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4597,7 +4595,7 @@
         <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>141</v>
@@ -4606,7 +4604,7 @@
         <v>104</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4626,7 +4624,7 @@
         <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>143</v>
@@ -4635,7 +4633,7 @@
         <v>106</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4655,7 +4653,7 @@
         <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>145</v>
@@ -4664,7 +4662,7 @@
         <v>104</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4684,7 +4682,7 @@
         <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>147</v>
@@ -4693,7 +4691,7 @@
         <v>104</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4701,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>5</v>
@@ -4713,7 +4711,7 @@
         <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>148</v>
@@ -4722,7 +4720,7 @@
         <v>106</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4742,7 +4740,7 @@
         <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>150</v>
@@ -4751,7 +4749,7 @@
         <v>104</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4771,7 +4769,7 @@
         <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>152</v>
@@ -4780,7 +4778,7 @@
         <v>106</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4800,7 +4798,7 @@
         <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>154</v>
@@ -4809,7 +4807,7 @@
         <v>106</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4829,7 +4827,7 @@
         <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>156</v>
@@ -4838,7 +4836,7 @@
         <v>104</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4858,7 +4856,7 @@
         <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>158</v>
@@ -4867,7 +4865,7 @@
         <v>106</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4887,7 +4885,7 @@
         <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>160</v>
@@ -4896,7 +4894,7 @@
         <v>104</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4916,7 +4914,7 @@
         <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>162</v>
@@ -4925,7 +4923,7 @@
         <v>106</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4945,7 +4943,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>164</v>
@@ -4954,7 +4952,7 @@
         <v>104</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -4974,7 +4972,7 @@
         <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>166</v>
@@ -4983,7 +4981,7 @@
         <v>104</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5003,7 +5001,7 @@
         <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>168</v>
@@ -5012,7 +5010,7 @@
         <v>106</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5032,7 +5030,7 @@
         <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>170</v>
@@ -5041,7 +5039,7 @@
         <v>104</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5061,7 +5059,7 @@
         <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>172</v>
@@ -5070,7 +5068,7 @@
         <v>104</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5090,7 +5088,7 @@
         <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>174</v>
@@ -5099,7 +5097,7 @@
         <v>106</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5119,7 +5117,7 @@
         <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>176</v>
@@ -5128,7 +5126,7 @@
         <v>104</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5148,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>178</v>
@@ -5157,7 +5155,7 @@
         <v>106</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5177,7 +5175,7 @@
         <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>180</v>
@@ -5186,7 +5184,7 @@
         <v>106</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5206,7 +5204,7 @@
         <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>182</v>
@@ -5215,7 +5213,7 @@
         <v>104</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5235,7 +5233,7 @@
         <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>184</v>
@@ -5244,7 +5242,7 @@
         <v>106</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -5273,7 +5271,7 @@
         <v>49</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5281,7 +5279,7 @@
         <v>33</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -5302,7 +5300,7 @@
         <v>63</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5310,7 +5308,7 @@
         <v>34</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -5331,7 +5329,7 @@
         <v>63</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -5360,10 +5358,10 @@
         <v>63</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5371,7 +5369,7 @@
         <v>36</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
@@ -5392,7 +5390,7 @@
         <v>70</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5400,7 +5398,7 @@
         <v>37</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -5421,7 +5419,7 @@
         <v>63</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -5429,7 +5427,7 @@
         <v>50</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -5450,10 +5448,10 @@
         <v>63</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5461,7 +5459,7 @@
         <v>44</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -5473,7 +5471,7 @@
         <v>90</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>91</v>
@@ -5482,7 +5480,7 @@
         <v>63</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5490,7 +5488,7 @@
         <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
@@ -5502,19 +5500,19 @@
         <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5522,7 +5520,7 @@
         <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>5</v>
@@ -5534,16 +5532,16 @@
         <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5551,7 +5549,7 @@
         <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>5</v>
@@ -5563,16 +5561,16 @@
         <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5580,7 +5578,7 @@
         <v>119</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>5</v>
@@ -5592,16 +5590,16 @@
         <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="112" x14ac:dyDescent="0.15">
@@ -5609,7 +5607,7 @@
         <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>5</v>
@@ -5618,22 +5616,22 @@
         <v>6</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="I95" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28" hidden="1" x14ac:dyDescent="0.15">
@@ -5660,7 +5658,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5687,7 +5685,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5714,7 +5712,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5722,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -5741,7 +5739,7 @@
         <v>9</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5768,7 +5766,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="28" x14ac:dyDescent="0.15">
@@ -5795,7 +5793,7 @@
         <v>9</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -5822,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -5839,10 +5837,10 @@
         <v>19</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>48</v>
@@ -5851,10 +5849,10 @@
         <v>49</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -5871,10 +5869,10 @@
         <v>19</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>59</v>
@@ -5883,7 +5881,7 @@
         <v>49</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5891,7 +5889,7 @@
         <v>42</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>5</v>
@@ -5900,10 +5898,10 @@
         <v>19</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>88</v>
@@ -5912,7 +5910,7 @@
         <v>70</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -5920,7 +5918,7 @@
         <v>43</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -5929,10 +5927,10 @@
         <v>19</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>89</v>
@@ -5941,7 +5939,7 @@
         <v>70</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5949,31 +5947,31 @@
         <v>127</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="I107" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -5981,31 +5979,31 @@
         <v>128</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6013,60 +6011,60 @@
         <v>129</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A110" s="9">
         <v>130</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>255</v>
+      <c r="H110" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6074,28 +6072,28 @@
         <v>131</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6103,28 +6101,28 @@
         <v>132</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6132,28 +6130,28 @@
         <v>133</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -6161,7 +6159,7 @@
         <v>38</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>5</v>
@@ -6173,7 +6171,7 @@
         <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>84</v>
@@ -6182,7 +6180,7 @@
         <v>63</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -6190,7 +6188,7 @@
         <v>39</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>5</v>
@@ -6202,7 +6200,7 @@
         <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>85</v>
@@ -6211,7 +6209,7 @@
         <v>63</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -6219,7 +6217,7 @@
         <v>40</v>
       </c>
       <c r="B116" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>5</v>
@@ -6231,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>86</v>
@@ -6240,7 +6238,7 @@
         <v>63</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -6248,7 +6246,7 @@
         <v>41</v>
       </c>
       <c r="B117" s="55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>5</v>
@@ -6260,7 +6258,7 @@
         <v>83</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>87</v>
@@ -6269,7 +6267,7 @@
         <v>63</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -6277,7 +6275,7 @@
         <v>51</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>5</v>
@@ -6289,7 +6287,7 @@
         <v>83</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>101</v>
@@ -6298,7 +6296,7 @@
         <v>63</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="21" customFormat="1" ht="84" hidden="1" x14ac:dyDescent="0.15">
@@ -6318,25 +6316,25 @@
         <v>83</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G119" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H119" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="H119" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="I119" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13"/>
       <c r="B120" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -6344,25 +6342,25 @@
         <v>83</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13"/>
       <c r="B121" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -6370,22 +6368,22 @@
         <v>83</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:10" s="16" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13"/>
       <c r="B122" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -6393,25 +6391,25 @@
         <v>83</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="16" customFormat="1" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="13"/>
       <c r="B123" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
@@ -6419,19 +6417,19 @@
         <v>83</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H123" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="35" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -6454,68 +6452,68 @@
         <v>83</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H124" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="30" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
       <c r="B125" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H125" s="29" t="s">
         <v>187</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J125" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="30" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
       <c r="B126" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H126" s="29" t="s">
         <v>187</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="30" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
       <c r="B127" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6523,22 +6521,22 @@
         <v>51</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G127" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H127" s="29" t="s">
         <v>187</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
       <c r="B128" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6546,16 +6544,16 @@
         <v>83</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G128" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H128" s="29" t="s">
         <v>187</v>
       </c>
       <c r="I128" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="44" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -6576,19 +6574,19 @@
       </c>
       <c r="F129" s="42"/>
       <c r="G129" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I129" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="39" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="36"/>
       <c r="B130" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -6596,25 +6594,25 @@
         <v>83</v>
       </c>
       <c r="F130" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>187</v>
       </c>
       <c r="I130" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J130" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="39" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="36"/>
       <c r="B131" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
@@ -6622,16 +6620,16 @@
         <v>83</v>
       </c>
       <c r="F131" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>187</v>
       </c>
       <c r="I131" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="48" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -6652,19 +6650,19 @@
       </c>
       <c r="F132" s="46"/>
       <c r="G132" s="47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="25" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -6672,25 +6670,25 @@
         <v>83</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H133" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J133" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -6698,22 +6696,22 @@
         <v>83</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H134" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="25" customFormat="1" ht="152" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
@@ -6721,25 +6719,25 @@
         <v>83</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H135" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I135" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J135" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
@@ -6747,25 +6745,25 @@
         <v>83</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H136" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I136" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J136" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="25" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="22"/>
       <c r="B137" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
@@ -6773,19 +6771,19 @@
         <v>83</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H137" s="24" t="s">
         <v>187</v>
       </c>
       <c r="I137" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J137" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="98" x14ac:dyDescent="0.15">
@@ -6793,7 +6791,7 @@
         <v>112</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>5</v>
@@ -6805,16 +6803,16 @@
         <v>83</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G138" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="I138" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6822,7 +6820,7 @@
         <v>113</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>5</v>
@@ -6834,19 +6832,19 @@
         <v>83</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6854,7 +6852,7 @@
         <v>114</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>5</v>
@@ -6866,16 +6864,16 @@
         <v>83</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -6883,7 +6881,7 @@
         <v>115</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>5</v>
@@ -6895,16 +6893,16 @@
         <v>83</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="112" hidden="1" x14ac:dyDescent="0.15">
@@ -6912,7 +6910,7 @@
         <v>121</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>5</v>
@@ -6924,19 +6922,19 @@
         <v>83</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="98" x14ac:dyDescent="0.15">
@@ -6944,7 +6942,7 @@
         <v>122</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>5</v>
@@ -6956,19 +6954,19 @@
         <v>83</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G143" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="I143" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J143" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="98" x14ac:dyDescent="0.15">
@@ -6976,7 +6974,7 @@
         <v>123</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>5</v>
@@ -6988,16 +6986,16 @@
         <v>83</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="98" hidden="1" x14ac:dyDescent="0.15">
@@ -7005,7 +7003,7 @@
         <v>124</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>5</v>
@@ -7017,19 +7015,19 @@
         <v>83</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="42" x14ac:dyDescent="0.15">
@@ -7037,7 +7035,7 @@
         <v>45</v>
       </c>
       <c r="B146" s="55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>5</v>
@@ -7058,7 +7056,7 @@
         <v>63</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="42" hidden="1" x14ac:dyDescent="0.15">
@@ -7087,7 +7085,7 @@
         <v>70</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="84" x14ac:dyDescent="0.15">
@@ -7095,7 +7093,7 @@
         <v>111</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>5</v>
@@ -7110,13 +7108,13 @@
         <v>92</v>
       </c>
       <c r="G148" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="I148" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="56" x14ac:dyDescent="0.15">
@@ -7124,7 +7122,7 @@
         <v>125</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>5</v>
@@ -7139,13 +7137,13 @@
         <v>92</v>
       </c>
       <c r="G149" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H149" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="I149" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="56" hidden="1" x14ac:dyDescent="0.15">
@@ -7153,7 +7151,7 @@
         <v>126</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>5</v>
@@ -7168,16 +7166,16 @@
         <v>92</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14" hidden="1" x14ac:dyDescent="0.15">
@@ -7198,27 +7196,27 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="49"/>
       <c r="B152" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C152" s="49"/>
       <c r="D152" s="49"/>
       <c r="E152" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F152" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G152" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H152" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I152" s="52" t="s">
         <v>274</v>
@@ -7227,516 +7225,516 @@
     <row r="153" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="49"/>
       <c r="B153" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C153" s="49"/>
       <c r="D153" s="49"/>
       <c r="E153" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F153" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G153" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H153" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I153" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="49"/>
       <c r="B154" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C154" s="49"/>
       <c r="D154" s="49"/>
       <c r="E154" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F154" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G154" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H154" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I154" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="49"/>
       <c r="B155" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C155" s="49"/>
       <c r="D155" s="49"/>
       <c r="E155" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F155" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G155" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H155" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I155" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="49"/>
       <c r="B156" s="49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C156" s="49"/>
       <c r="D156" s="49"/>
       <c r="E156" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F156" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G156" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H156" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I156" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="49"/>
       <c r="B157" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C157" s="49"/>
       <c r="D157" s="49"/>
       <c r="E157" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F157" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G157" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H157" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I157" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="49"/>
       <c r="B158" s="49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C158" s="49"/>
       <c r="D158" s="49"/>
       <c r="E158" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F158" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G158" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H158" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I158" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="49"/>
       <c r="B159" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C159" s="49"/>
       <c r="D159" s="49"/>
       <c r="E159" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F159" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G159" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H159" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I159" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="49"/>
       <c r="B160" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C160" s="49"/>
       <c r="D160" s="49"/>
       <c r="E160" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F160" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G160" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H160" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I160" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="49"/>
       <c r="B161" s="52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="49"/>
       <c r="D161" s="49"/>
       <c r="E161" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F161" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G161" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H161" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I161" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="49"/>
       <c r="B162" s="49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C162" s="49"/>
       <c r="D162" s="49"/>
       <c r="E162" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F162" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G162" s="51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H162" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I162" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="49"/>
       <c r="B163" s="49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C163" s="49"/>
       <c r="D163" s="49"/>
       <c r="E163" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F163" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G163" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H163" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I163" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="49"/>
       <c r="B164" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C164" s="49"/>
       <c r="D164" s="49"/>
       <c r="E164" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F164" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H164" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I164" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="49"/>
       <c r="B165" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C165" s="49"/>
       <c r="D165" s="49"/>
       <c r="E165" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F165" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G165" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H165" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I165" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="49"/>
       <c r="B166" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C166" s="49"/>
       <c r="D166" s="49"/>
       <c r="E166" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F166" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H166" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I166" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="49"/>
       <c r="B167" s="49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
       <c r="E167" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F167" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H167" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I167" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="52" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="49"/>
       <c r="B168" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C168" s="49"/>
       <c r="D168" s="49"/>
       <c r="E168" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F168" s="49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G168" s="51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H168" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I168" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="52" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B169" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E169" s="52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F169" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G169" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="H169" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="H169" s="52" t="s">
-        <v>375</v>
-      </c>
       <c r="I169" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B170" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G170" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H170" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H170" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="I170" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B172" s="55" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E172" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B173" s="55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G173" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H173" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="H173" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="I173" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B174" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>92</v>
@@ -7745,21 +7743,21 @@
         <v>92</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B175" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>92</v>
@@ -7768,21 +7766,21 @@
         <v>92</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B176" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>92</v>
@@ -7791,21 +7789,21 @@
         <v>92</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B177" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>92</v>
@@ -7814,21 +7812,21 @@
         <v>92</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B178" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>92</v>
@@ -7837,21 +7835,21 @@
         <v>92</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B179" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>92</v>
@@ -7860,10 +7858,10 @@
         <v>92</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
